--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H2">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I2">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J2">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>24.8108033949416</v>
+        <v>0.542013</v>
       </c>
       <c r="N2">
-        <v>24.8108033949416</v>
+        <v>1.626039</v>
       </c>
       <c r="O2">
-        <v>0.954832823039904</v>
+        <v>0.02031371189513579</v>
       </c>
       <c r="P2">
-        <v>0.954832823039904</v>
+        <v>0.02031371189513579</v>
       </c>
       <c r="Q2">
-        <v>237.8120015964873</v>
+        <v>5.264264766957999</v>
       </c>
       <c r="R2">
-        <v>237.8120015964873</v>
+        <v>47.37838290262199</v>
       </c>
       <c r="S2">
-        <v>0.4463133614370041</v>
+        <v>0.009423658985445624</v>
       </c>
       <c r="T2">
-        <v>0.4463133614370041</v>
+        <v>0.009423658985445622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H3">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I3">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J3">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17364414002203</v>
+        <v>24.90258766666667</v>
       </c>
       <c r="N3">
-        <v>1.17364414002203</v>
+        <v>74.707763</v>
       </c>
       <c r="O3">
-        <v>0.0451671769600959</v>
+        <v>0.9333060116713593</v>
       </c>
       <c r="P3">
-        <v>0.0451671769600959</v>
+        <v>0.9333060116713591</v>
       </c>
       <c r="Q3">
-        <v>11.2494004187519</v>
+        <v>241.8647059382638</v>
       </c>
       <c r="R3">
-        <v>11.2494004187519</v>
+        <v>2176.782353444374</v>
       </c>
       <c r="S3">
-        <v>0.02111229745066895</v>
+        <v>0.4329665414405757</v>
       </c>
       <c r="T3">
-        <v>0.02111229745066895</v>
+        <v>0.4329665414405755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.08530406217165</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H4">
-        <v>9.08530406217165</v>
+        <v>29.137298</v>
       </c>
       <c r="I4">
-        <v>0.4430564614259928</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J4">
-        <v>0.4430564614259928</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>24.8108033949416</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N4">
-        <v>24.8108033949416</v>
+        <v>0.05195</v>
       </c>
       <c r="O4">
-        <v>0.954832823039904</v>
+        <v>0.0006489987835176797</v>
       </c>
       <c r="P4">
-        <v>0.954832823039904</v>
+        <v>0.0006489987835176796</v>
       </c>
       <c r="Q4">
-        <v>225.4136928698051</v>
+        <v>0.1681869590111111</v>
       </c>
       <c r="R4">
-        <v>225.4136928698051</v>
+        <v>1.5136826311</v>
       </c>
       <c r="S4">
-        <v>0.4230448518294511</v>
+        <v>0.0003010746263120998</v>
       </c>
       <c r="T4">
-        <v>0.4230448518294511</v>
+        <v>0.0003010746263120996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.08530406217165</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H5">
-        <v>9.08530406217165</v>
+        <v>29.137298</v>
       </c>
       <c r="I5">
-        <v>0.4430564614259928</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J5">
-        <v>0.4430564614259928</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.17364414002203</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N5">
-        <v>1.17364414002203</v>
+        <v>0.055852</v>
       </c>
       <c r="O5">
-        <v>0.0451671769600959</v>
+        <v>0.0006977455256406052</v>
       </c>
       <c r="P5">
-        <v>0.0451671769600959</v>
+        <v>0.0006977455256406051</v>
       </c>
       <c r="Q5">
-        <v>10.6629138728861</v>
+        <v>0.1808195964328889</v>
       </c>
       <c r="R5">
-        <v>10.6629138728861</v>
+        <v>1.627376367896</v>
       </c>
       <c r="S5">
-        <v>0.02001160959654172</v>
+        <v>0.000323688547233559</v>
       </c>
       <c r="T5">
-        <v>0.02001160959654172</v>
+        <v>0.0003236885472335589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.274644341744623</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H6">
-        <v>0.274644341744623</v>
+        <v>29.137298</v>
       </c>
       <c r="I6">
-        <v>0.01339338225461196</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J6">
-        <v>0.01339338225461196</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8108033949416</v>
+        <v>1.201590333333334</v>
       </c>
       <c r="N6">
-        <v>24.8108033949416</v>
+        <v>3.604771</v>
       </c>
       <c r="O6">
-        <v>0.954832823039904</v>
+        <v>0.04503353212434668</v>
       </c>
       <c r="P6">
-        <v>0.954832823039904</v>
+        <v>0.04503353212434667</v>
       </c>
       <c r="Q6">
-        <v>6.814146766558993</v>
+        <v>11.67036520541756</v>
       </c>
       <c r="R6">
-        <v>6.814146766558993</v>
+        <v>105.033286848758</v>
       </c>
       <c r="S6">
-        <v>0.01278844098822369</v>
+        <v>0.02089133939876216</v>
       </c>
       <c r="T6">
-        <v>0.01278844098822369</v>
+        <v>0.02089133939876215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.274644341744623</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H7">
-        <v>0.274644341744623</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J7">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.17364414002203</v>
+        <v>0.542013</v>
       </c>
       <c r="N7">
-        <v>1.17364414002203</v>
+        <v>1.626039</v>
       </c>
       <c r="O7">
-        <v>0.0451671769600959</v>
+        <v>0.02031371189513579</v>
       </c>
       <c r="P7">
-        <v>0.0451671769600959</v>
+        <v>0.02031371189513579</v>
       </c>
       <c r="Q7">
-        <v>0.3223347222787846</v>
+        <v>4.945817133764999</v>
       </c>
       <c r="R7">
-        <v>0.3223347222787846</v>
+        <v>44.51235420388499</v>
       </c>
       <c r="S7">
-        <v>0.0006049412663882666</v>
+        <v>0.008853599911143548</v>
       </c>
       <c r="T7">
-        <v>0.0006049412663882666</v>
+        <v>0.008853599911143546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.319477951252761</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H8">
-        <v>0.319477951252761</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I8">
-        <v>0.01557975050884982</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J8">
-        <v>0.01557975050884982</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.8108033949416</v>
+        <v>24.90258766666667</v>
       </c>
       <c r="N8">
-        <v>24.8108033949416</v>
+        <v>74.707763</v>
       </c>
       <c r="O8">
-        <v>0.954832823039904</v>
+        <v>0.9333060116713593</v>
       </c>
       <c r="P8">
-        <v>0.954832823039904</v>
+        <v>0.9333060116713591</v>
       </c>
       <c r="Q8">
-        <v>7.92650463755099</v>
+        <v>227.2337467125049</v>
       </c>
       <c r="R8">
-        <v>7.92650463755099</v>
+        <v>2045.103720412545</v>
       </c>
       <c r="S8">
-        <v>0.01487605716062246</v>
+        <v>0.4067753872192077</v>
       </c>
       <c r="T8">
-        <v>0.01487605716062246</v>
+        <v>0.4067753872192076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.319477951252761</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H9">
-        <v>0.319477951252761</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I9">
-        <v>0.01557975050884982</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J9">
-        <v>0.01557975050884982</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.17364414002203</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N9">
-        <v>1.17364414002203</v>
+        <v>0.05195</v>
       </c>
       <c r="O9">
-        <v>0.0451671769600959</v>
+        <v>0.0006489987835176797</v>
       </c>
       <c r="P9">
-        <v>0.0451671769600959</v>
+        <v>0.0006489987835176796</v>
       </c>
       <c r="Q9">
-        <v>0.3749534253540467</v>
+        <v>0.15801293825</v>
       </c>
       <c r="R9">
-        <v>0.3749534253540467</v>
+        <v>1.42211644425</v>
       </c>
       <c r="S9">
-        <v>0.0007036933482273642</v>
+        <v>0.0002828619211371359</v>
       </c>
       <c r="T9">
-        <v>0.0007036933482273642</v>
+        <v>0.0002828619211371359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.24152897667064</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H10">
-        <v>1.24152897667064</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I10">
-        <v>0.06054474692287248</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J10">
-        <v>0.06054474692287248</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>24.8108033949416</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N10">
-        <v>24.8108033949416</v>
+        <v>0.055852</v>
       </c>
       <c r="O10">
-        <v>0.954832823039904</v>
+        <v>0.0006977455256406052</v>
       </c>
       <c r="P10">
-        <v>0.954832823039904</v>
+        <v>0.0006977455256406051</v>
       </c>
       <c r="Q10">
-        <v>30.80333134929829</v>
+        <v>0.16988139802</v>
       </c>
       <c r="R10">
-        <v>30.80333134929829</v>
+        <v>1.52893258218</v>
       </c>
       <c r="S10">
-        <v>0.05781011162460287</v>
+        <v>0.000304107873327263</v>
       </c>
       <c r="T10">
-        <v>0.05781011162460287</v>
+        <v>0.000304107873327263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.24152897667064</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H11">
-        <v>1.24152897667064</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I11">
-        <v>0.06054474692287248</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J11">
-        <v>0.06054474692287248</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.17364414002203</v>
+        <v>1.201590333333334</v>
       </c>
       <c r="N11">
-        <v>1.17364414002203</v>
+        <v>3.604771</v>
       </c>
       <c r="O11">
-        <v>0.0451671769600959</v>
+        <v>0.04503353212434668</v>
       </c>
       <c r="P11">
-        <v>0.0451671769600959</v>
+        <v>0.04503353212434667</v>
       </c>
       <c r="Q11">
-        <v>1.457113208137045</v>
+        <v>10.964397640585</v>
       </c>
       <c r="R11">
-        <v>1.457113208137045</v>
+        <v>98.67957876526499</v>
       </c>
       <c r="S11">
-        <v>0.002734635298269603</v>
+        <v>0.01962757363463782</v>
       </c>
       <c r="T11">
-        <v>0.002734635298269603</v>
+        <v>0.01962757363463781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.318184</v>
+      </c>
+      <c r="H12">
+        <v>0.9545520000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="J12">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.542013</v>
+      </c>
+      <c r="N12">
+        <v>1.626039</v>
+      </c>
+      <c r="O12">
+        <v>0.02031371189513579</v>
+      </c>
+      <c r="P12">
+        <v>0.02031371189513579</v>
+      </c>
+      <c r="Q12">
+        <v>0.172459864392</v>
+      </c>
+      <c r="R12">
+        <v>1.552138779528</v>
+      </c>
+      <c r="S12">
+        <v>0.0003087236342874035</v>
+      </c>
+      <c r="T12">
+        <v>0.0003087236342874034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.318184</v>
+      </c>
+      <c r="H13">
+        <v>0.9545520000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="J13">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>24.90258766666667</v>
+      </c>
+      <c r="N13">
+        <v>74.707763</v>
+      </c>
+      <c r="O13">
+        <v>0.9333060116713593</v>
+      </c>
+      <c r="P13">
+        <v>0.9333060116713591</v>
+      </c>
+      <c r="Q13">
+        <v>7.923604954130667</v>
+      </c>
+      <c r="R13">
+        <v>71.312444587176</v>
+      </c>
+      <c r="S13">
+        <v>0.01418419367729926</v>
+      </c>
+      <c r="T13">
+        <v>0.01418419367729926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.318184</v>
+      </c>
+      <c r="H14">
+        <v>0.9545520000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="J14">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01731666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.05195</v>
+      </c>
+      <c r="O14">
+        <v>0.0006489987835176797</v>
+      </c>
+      <c r="P14">
+        <v>0.0006489987835176796</v>
+      </c>
+      <c r="Q14">
+        <v>0.005509886266666667</v>
+      </c>
+      <c r="R14">
+        <v>0.04958897640000001</v>
+      </c>
+      <c r="S14">
+        <v>9.863350633798214E-06</v>
+      </c>
+      <c r="T14">
+        <v>9.863350633798211E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.318184</v>
+      </c>
+      <c r="H15">
+        <v>0.9545520000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="J15">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01861733333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.055852</v>
+      </c>
+      <c r="O15">
+        <v>0.0006977455256406052</v>
+      </c>
+      <c r="P15">
+        <v>0.0006977455256406051</v>
+      </c>
+      <c r="Q15">
+        <v>0.005923737589333334</v>
+      </c>
+      <c r="R15">
+        <v>0.053313638304</v>
+      </c>
+      <c r="S15">
+        <v>1.060419364001728E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.060419364001728E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.318184</v>
+      </c>
+      <c r="H16">
+        <v>0.9545520000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="J16">
+        <v>0.01519779525677573</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.201590333333334</v>
+      </c>
+      <c r="N16">
+        <v>3.604771</v>
+      </c>
+      <c r="O16">
+        <v>0.04503353212434668</v>
+      </c>
+      <c r="P16">
+        <v>0.04503353212434667</v>
+      </c>
+      <c r="Q16">
+        <v>0.3823268186213334</v>
+      </c>
+      <c r="R16">
+        <v>3.440941367592</v>
+      </c>
+      <c r="S16">
+        <v>0.0006844104009152537</v>
+      </c>
+      <c r="T16">
+        <v>0.0006844104009152533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.353022</v>
+      </c>
+      <c r="H17">
+        <v>1.059066</v>
+      </c>
+      <c r="I17">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J17">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.542013</v>
+      </c>
+      <c r="N17">
+        <v>1.626039</v>
+      </c>
+      <c r="O17">
+        <v>0.02031371189513579</v>
+      </c>
+      <c r="P17">
+        <v>0.02031371189513579</v>
+      </c>
+      <c r="Q17">
+        <v>0.191342513286</v>
+      </c>
+      <c r="R17">
+        <v>1.722082619574</v>
+      </c>
+      <c r="S17">
+        <v>0.0003425258178393877</v>
+      </c>
+      <c r="T17">
+        <v>0.0003425258178393877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.353022</v>
+      </c>
+      <c r="H18">
+        <v>1.059066</v>
+      </c>
+      <c r="I18">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J18">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>24.90258766666667</v>
+      </c>
+      <c r="N18">
+        <v>74.707763</v>
+      </c>
+      <c r="O18">
+        <v>0.9333060116713593</v>
+      </c>
+      <c r="P18">
+        <v>0.9333060116713591</v>
+      </c>
+      <c r="Q18">
+        <v>8.791161303261999</v>
+      </c>
+      <c r="R18">
+        <v>79.12045172935801</v>
+      </c>
+      <c r="S18">
+        <v>0.0157372225515662</v>
+      </c>
+      <c r="T18">
+        <v>0.01573722255156619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.353022</v>
+      </c>
+      <c r="H19">
+        <v>1.059066</v>
+      </c>
+      <c r="I19">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J19">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01731666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.05195</v>
+      </c>
+      <c r="O19">
+        <v>0.0006489987835176797</v>
+      </c>
+      <c r="P19">
+        <v>0.0006489987835176796</v>
+      </c>
+      <c r="Q19">
+        <v>0.0061131643</v>
+      </c>
+      <c r="R19">
+        <v>0.05501847870000001</v>
+      </c>
+      <c r="S19">
+        <v>1.09432899436952E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.094328994369519E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.353022</v>
+      </c>
+      <c r="H20">
+        <v>1.059066</v>
+      </c>
+      <c r="I20">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J20">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01861733333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.055852</v>
+      </c>
+      <c r="O20">
+        <v>0.0006977455256406052</v>
+      </c>
+      <c r="P20">
+        <v>0.0006977455256406051</v>
+      </c>
+      <c r="Q20">
+        <v>0.006572328248</v>
+      </c>
+      <c r="R20">
+        <v>0.059150954232</v>
+      </c>
+      <c r="S20">
+        <v>1.176524792945648E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.176524792945648E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.353022</v>
+      </c>
+      <c r="H21">
+        <v>1.059066</v>
+      </c>
+      <c r="I21">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J21">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.201590333333334</v>
+      </c>
+      <c r="N21">
+        <v>3.604771</v>
+      </c>
+      <c r="O21">
+        <v>0.04503353212434668</v>
+      </c>
+      <c r="P21">
+        <v>0.04503353212434667</v>
+      </c>
+      <c r="Q21">
+        <v>0.4241878226540001</v>
+      </c>
+      <c r="R21">
+        <v>3.817690403886</v>
+      </c>
+      <c r="S21">
+        <v>0.0007593465685009449</v>
+      </c>
+      <c r="T21">
+        <v>0.0007593465685009445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.427651</v>
+      </c>
+      <c r="H22">
+        <v>4.282953</v>
+      </c>
+      <c r="I22">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J22">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.542013</v>
+      </c>
+      <c r="N22">
+        <v>1.626039</v>
+      </c>
+      <c r="O22">
+        <v>0.02031371189513579</v>
+      </c>
+      <c r="P22">
+        <v>0.02031371189513579</v>
+      </c>
+      <c r="Q22">
+        <v>0.7738054014629999</v>
+      </c>
+      <c r="R22">
+        <v>6.964248613167</v>
+      </c>
+      <c r="S22">
+        <v>0.001385203546419826</v>
+      </c>
+      <c r="T22">
+        <v>0.001385203546419826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.427651</v>
+      </c>
+      <c r="H23">
+        <v>4.282953</v>
+      </c>
+      <c r="I23">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J23">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>24.90258766666667</v>
+      </c>
+      <c r="N23">
+        <v>74.707763</v>
+      </c>
+      <c r="O23">
+        <v>0.9333060116713593</v>
+      </c>
+      <c r="P23">
+        <v>0.9333060116713591</v>
+      </c>
+      <c r="Q23">
+        <v>35.55220418490433</v>
+      </c>
+      <c r="R23">
+        <v>319.969837664139</v>
+      </c>
+      <c r="S23">
+        <v>0.06364266678271054</v>
+      </c>
+      <c r="T23">
+        <v>0.06364266678271051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.427651</v>
+      </c>
+      <c r="H24">
+        <v>4.282953</v>
+      </c>
+      <c r="I24">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J24">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01731666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.05195</v>
+      </c>
+      <c r="O24">
+        <v>0.0006489987835176797</v>
+      </c>
+      <c r="P24">
+        <v>0.0006489987835176796</v>
+      </c>
+      <c r="Q24">
+        <v>0.02472215648333333</v>
+      </c>
+      <c r="R24">
+        <v>0.22249940835</v>
+      </c>
+      <c r="S24">
+        <v>4.425559549095069E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.425559549095067E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.427651</v>
+      </c>
+      <c r="H25">
+        <v>4.282953</v>
+      </c>
+      <c r="I25">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J25">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.01861733333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.055852</v>
+      </c>
+      <c r="O25">
+        <v>0.0006977455256406052</v>
+      </c>
+      <c r="P25">
+        <v>0.0006977455256406051</v>
+      </c>
+      <c r="Q25">
+        <v>0.02657905455066667</v>
+      </c>
+      <c r="R25">
+        <v>0.239211490956</v>
+      </c>
+      <c r="S25">
+        <v>4.757966351030948E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.757966351030947E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.427651</v>
+      </c>
+      <c r="H26">
+        <v>4.282953</v>
+      </c>
+      <c r="I26">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J26">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.201590333333334</v>
+      </c>
+      <c r="N26">
+        <v>3.604771</v>
+      </c>
+      <c r="O26">
+        <v>0.04503353212434668</v>
+      </c>
+      <c r="P26">
+        <v>0.04503353212434667</v>
+      </c>
+      <c r="Q26">
+        <v>1.715451640973667</v>
+      </c>
+      <c r="R26">
+        <v>15.439064768763</v>
+      </c>
+      <c r="S26">
+        <v>0.003070862121530507</v>
+      </c>
+      <c r="T26">
+        <v>0.003070862121530505</v>
       </c>
     </row>
   </sheetData>
